--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -32,37 +32,37 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">02-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">01-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">31-Aug-21</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">30-Aug-21</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">29-Aug-21</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">28-Aug-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-Aug-21</t>
   </si>
 </sst>
 </file>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -32,37 +32,37 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">07-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
     <t xml:space="preserve">02-Sep-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-Sep-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-Aug-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-Aug-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-Aug-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-Aug-21</t>
   </si>
 </sst>
 </file>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -32,37 +32,37 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">10-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
     <t xml:space="preserve">07-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">06-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">05-Sep-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-Sep-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-Sep-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-Sep-21</t>
   </si>
 </sst>
 </file>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -32,37 +32,37 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">11-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">10-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">09-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">08-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">07-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">06-Sep-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-Sep-21</t>
   </si>
 </sst>
 </file>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -32,37 +32,37 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">11-Sep-21</t>
+    <t xml:space="preserve">17-Sep-21</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">10-Sep-21</t>
+    <t xml:space="preserve">16-Sep-21</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">09-Sep-21</t>
+    <t xml:space="preserve">15-Sep-21</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">08-Sep-21</t>
+    <t xml:space="preserve">14-Sep-21</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">07-Sep-21</t>
+    <t xml:space="preserve">13-Sep-21</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">06-Sep-21</t>
+    <t xml:space="preserve">12-Sep-21</t>
   </si>
 </sst>
 </file>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -32,37 +32,37 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">19-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">17-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">16-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">15-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">14-Sep-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-Sep-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-Sep-21</t>
   </si>
 </sst>
 </file>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -32,37 +32,37 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">20-Sep-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">19-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">18-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">17-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">16-Sep-21</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">15-Sep-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-Sep-21</t>
   </si>
 </sst>
 </file>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -32,37 +32,37 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">20-Sep-21</t>
+    <t xml:space="preserve">26-Sep-21</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">19-Sep-21</t>
+    <t xml:space="preserve">25-Sep-21</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">18-Sep-21</t>
+    <t xml:space="preserve">24-Sep-21</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">17-Sep-21</t>
+    <t xml:space="preserve">23-Sep-21</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">16-Sep-21</t>
+    <t xml:space="preserve">22-Sep-21</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">15-Sep-21</t>
+    <t xml:space="preserve">21-Sep-21</t>
   </si>
 </sst>
 </file>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">character</t>
   </si>
   <si>
+    <t xml:space="preserve">factor</t>
+  </si>
+  <si>
     <t xml:space="preserve">integer</t>
   </si>
   <si>
@@ -32,51 +35,49 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">26-Sep-21</t>
+    <t xml:space="preserve">high</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">25-Sep-21</t>
+    <t xml:space="preserve">low</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">24-Sep-21</t>
+    <t xml:space="preserve">med</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">23-Sep-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">22-Sep-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-Sep-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,105 +412,126 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1.5</v>
       </c>
-      <c r="D2" t="b">
+      <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="F2" s="1" t="n">
+        <v>44465</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2.5</v>
       </c>
-      <c r="D3" t="b">
+      <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="F3" s="1" t="n">
+        <v>44464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>3.5</v>
       </c>
-      <c r="D4" t="b">
+      <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
+      <c r="F4" s="1" t="n">
+        <v>44463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>4.5</v>
       </c>
-      <c r="D5" t="b">
+      <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
+      <c r="F5" s="1" t="n">
+        <v>44462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>5.5</v>
       </c>
-      <c r="D6"/>
-      <c r="E6" t="s">
-        <v>14</v>
+      <c r="E6"/>
+      <c r="F6" s="1" t="n">
+        <v>44461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>6.5</v>
       </c>
-      <c r="D7" t="b">
+      <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
+      <c r="F7" s="1" t="n">
+        <v>44460</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44465</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44464</v>
+        <v>44465</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44463</v>
+        <v>44464</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44460</v>
+        <v>44461</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44465</v>
+        <v>44472</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44464</v>
+        <v>44471</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44463</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44462</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44461</v>
+        <v>44468</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44473</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44472</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44471</v>
+        <v>44479</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44470</v>
+        <v>44478</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44469</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44480</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44479</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44478</v>
+        <v>44479</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44477</v>
+        <v>44478</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44476</v>
+        <v>44477</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44482</v>
+        <v>44483</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44480</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44479</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44478</v>
+        <v>44479</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44477</v>
+        <v>44478</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44483</v>
+        <v>44484</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44482</v>
+        <v>44483</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44480</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44479</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44478</v>
+        <v>44479</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44484</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44483</v>
+        <v>44488</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44482</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44481</v>
+        <v>44486</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44480</v>
+        <v>44485</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44479</v>
+        <v>44484</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44489</v>
+        <v>44497</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44488</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44487</v>
+        <v>44495</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44486</v>
+        <v>44494</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44485</v>
+        <v>44493</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44484</v>
+        <v>44492</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44497</v>
+        <v>44507</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44496</v>
+        <v>44506</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44495</v>
+        <v>44505</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44494</v>
+        <v>44504</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44493</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44492</v>
+        <v>44502</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44507</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44506</v>
+        <v>44514</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44505</v>
+        <v>44513</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44504</v>
+        <v>44512</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44503</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44502</v>
+        <v>44510</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44515</v>
+        <v>44522</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44514</v>
+        <v>44521</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44513</v>
+        <v>44520</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44512</v>
+        <v>44519</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44511</v>
+        <v>44518</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44510</v>
+        <v>44517</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44522</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44521</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44520</v>
+        <v>44542</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44519</v>
+        <v>44541</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44518</v>
+        <v>44540</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44517</v>
+        <v>44539</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44544</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44543</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44541</v>
+        <v>44542</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44540</v>
+        <v>44541</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44545</v>
+        <v>44564</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44544</v>
+        <v>44563</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44543</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44542</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44541</v>
+        <v>44560</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44540</v>
+        <v>44559</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44564</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44563</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44562</v>
+        <v>44564</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44561</v>
+        <v>44563</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44560</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44559</v>
+        <v>44561</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44566</v>
+        <v>44567</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44565</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44564</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44563</v>
+        <v>44564</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44562</v>
+        <v>44563</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44561</v>
+        <v>44562</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44567</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44566</v>
+        <v>44570</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44565</v>
+        <v>44569</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44564</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44563</v>
+        <v>44567</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44562</v>
+        <v>44566</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44571</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44570</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44569</v>
+        <v>44570</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44568</v>
+        <v>44569</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44567</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44566</v>
+        <v>44567</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44572</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44571</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44570</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44569</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44568</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44567</v>
+        <v>44570</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44575</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44571</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44570</v>
+        <v>44571</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44576</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44575</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44571</v>
+        <v>44572</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44577</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44576</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44575</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44578</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44577</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44576</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44575</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44574</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44573</v>
+        <v>44575</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44578</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44577</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44576</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44575</v>
+        <v>44576</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44578</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44577</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44576</v>
+        <v>44577</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44581</v>
+        <v>44584</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44580</v>
+        <v>44583</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44579</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44578</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44577</v>
+        <v>44580</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44583</v>
+        <v>44584</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44582</v>
+        <v>44583</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44583</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44582</v>
+        <v>44584</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44581</v>
+        <v>44583</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44587</v>
+        <v>44591</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44586</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44585</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44584</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44583</v>
+        <v>44587</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44591</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44590</v>
+        <v>44591</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44589</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44593</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44591</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44590</v>
+        <v>44591</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44589</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44593</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44591</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44590</v>
+        <v>44591</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44589</v>
+        <v>44590</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44595</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44593</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44591</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44590</v>
+        <v>44591</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44596</v>
+        <v>44597</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44595</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44593</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44591</v>
+        <v>44592</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44597</v>
+        <v>44598</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44596</v>
+        <v>44597</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44595</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44593</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44598</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44597</v>
+        <v>44598</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44596</v>
+        <v>44597</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44595</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44593</v>
+        <v>44594</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44599</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44598</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44597</v>
+        <v>44598</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44596</v>
+        <v>44597</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44595</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44599</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44598</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44597</v>
+        <v>44598</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44596</v>
+        <v>44597</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44595</v>
+        <v>44596</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44601</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44599</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44598</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44597</v>
+        <v>44598</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44596</v>
+        <v>44597</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44602</v>
+        <v>44604</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44601</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44600</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44599</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44598</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44597</v>
+        <v>44599</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44604</v>
+        <v>44611</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44603</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44602</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44601</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44599</v>
+        <v>44606</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44611</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44610</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44609</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44608</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44607</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44606</v>
+        <v>44613</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44618</v>
+        <v>44619</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44617</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44616</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44615</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44614</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44619</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44618</v>
+        <v>44619</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44617</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44616</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44615</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44614</v>
+        <v>44615</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44620</v>
+        <v>44633</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44619</v>
+        <v>44632</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44618</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44617</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44616</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44615</v>
+        <v>44628</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44633</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44632</v>
+        <v>44633</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44631</v>
+        <v>44632</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44630</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44629</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44628</v>
+        <v>44629</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44634</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44633</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44632</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44631</v>
+        <v>44633</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44630</v>
+        <v>44632</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44629</v>
+        <v>44631</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44636</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44635</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44634</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44633</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44632</v>
+        <v>44633</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44631</v>
+        <v>44632</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44637</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44636</v>
+        <v>44647</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44635</v>
+        <v>44646</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44633</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44632</v>
+        <v>44643</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44648</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44647</v>
+        <v>44654</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44646</v>
+        <v>44653</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44645</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44644</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44643</v>
+        <v>44650</v>
       </c>
     </row>
   </sheetData>

--- a/book/data/demo.xlsx
+++ b/book/data/demo.xlsx
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44655</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44654</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44653</v>
+        <v>44689</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44652</v>
+        <v>44688</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="1" t="n">
-        <v>44651</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44650</v>
+        <v>44686</v>
       </c>
     </row>
   </sheetData>
